--- a/data/590_P_label_case.xlsx
+++ b/data/590_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,826 +448,1658 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0045151</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02094490459918304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0090302</v>
+        <v>0.0045151</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1127589687925012</v>
+        <v>0.02094490459918304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.013545</v>
+        <v>0.0090302</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2084920023639756</v>
+        <v>0.1127589687925012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01806</v>
+        <v>0.013545</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241433590465885</v>
+        <v>0.2084920023639756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.022934</v>
+        <v>0.01806</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2319050738863562</v>
+        <v>0.241433590465885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.027807</v>
+        <v>0.022934</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2010756357604117</v>
+        <v>0.2319050738863562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03268</v>
+        <v>0.027807</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1686191385533303</v>
+        <v>0.2010756357604117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.037553</v>
+        <v>0.03268</v>
       </c>
       <c r="B9" t="n">
-        <v>0.140447723760407</v>
+        <v>0.1686191385533303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.042805</v>
+        <v>0.037553</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1160246142095631</v>
+        <v>0.140447723760407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.048057</v>
+        <v>0.042805</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09713987621126438</v>
+        <v>0.1160246142095631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.053309</v>
+        <v>0.048057</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0829715803729586</v>
+        <v>0.09713987621126438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.058561</v>
+        <v>0.053309</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07175440063291491</v>
+        <v>0.0829715803729586</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06421200000000001</v>
+        <v>0.058561</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06235756683893831</v>
+        <v>0.07175440063291491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.06986199999999999</v>
+        <v>0.06421200000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05502234306019877</v>
+        <v>0.06235756683893831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.075513</v>
+        <v>0.06986199999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04933349835044366</v>
+        <v>0.05502234306019877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.081164</v>
+        <v>0.075513</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04472009728706313</v>
+        <v>0.04933349835044366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.087233</v>
+        <v>0.081164</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04061706936796382</v>
+        <v>0.04472009728706313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.093302</v>
+        <v>0.087233</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03731130480955896</v>
+        <v>0.04061706936796382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.099371</v>
+        <v>0.093302</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03464331141122259</v>
+        <v>0.03731130480955896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.10544</v>
+        <v>0.099371</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03242823092863498</v>
+        <v>0.03464331141122259</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.11195</v>
+        <v>0.10544</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03035229854483423</v>
+        <v>0.03242823092863498</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.11845</v>
+        <v>0.11195</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02859685358923482</v>
+        <v>0.03035229854483423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.12496</v>
+        <v>0.11845</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0270928333474157</v>
+        <v>0.02859685358923482</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.13147</v>
+        <v>0.12496</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02576867765319803</v>
+        <v>0.0270928333474157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.13843</v>
+        <v>0.13147</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02445333163781207</v>
+        <v>0.02576867765319803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.14539</v>
+        <v>0.13843</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02328838159139576</v>
+        <v>0.02445333163781207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.15235</v>
+        <v>0.14539</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02226387465763626</v>
+        <v>0.02328838159139576</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.15931</v>
+        <v>0.15235</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213688253958842</v>
+        <v>0.02226387465763626</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.16674</v>
+        <v>0.15931</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02050462307787101</v>
+        <v>0.0213688253958842</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.17417</v>
+        <v>0.16674</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01977283078743698</v>
+        <v>0.02050462307787101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1816</v>
+        <v>0.17417</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01911844544190702</v>
+        <v>0.01977283078743698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.18903</v>
+        <v>0.1816</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01848824865160717</v>
+        <v>0.01911844544190702</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.19695</v>
+        <v>0.18903</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01779221608777953</v>
+        <v>0.01848824865160717</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.20486</v>
+        <v>0.19695</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01711843699048503</v>
+        <v>0.01779221608777953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.21277</v>
+        <v>0.20486</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0164884596475438</v>
+        <v>0.01711843699048503</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.22069</v>
+        <v>0.21277</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01592205788541312</v>
+        <v>0.0164884596475438</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2291</v>
+        <v>0.22069</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01530964296585347</v>
+        <v>0.01592205788541312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.23751</v>
+        <v>0.2291</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01472831462240834</v>
+        <v>0.01530964296585347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.24591</v>
+        <v>0.23751</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01417938424580738</v>
+        <v>0.01472831462240834</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.25432</v>
+        <v>0.24591</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01367047138071682</v>
+        <v>0.01417938424580738</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.26323</v>
+        <v>0.25432</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01311437366079313</v>
+        <v>0.01367047138071682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.27214</v>
+        <v>0.26323</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01263074831716695</v>
+        <v>0.01311437366079313</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.28105</v>
+        <v>0.27214</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01220794125910699</v>
+        <v>0.01263074831716695</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.28996</v>
+        <v>0.28105</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01183312775710173</v>
+        <v>0.01220794125910699</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.29938</v>
+        <v>0.28996</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01140927553277173</v>
+        <v>0.01183312775710173</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3088</v>
+        <v>0.29938</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01101952623338795</v>
+        <v>0.01140927553277173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.31821</v>
+        <v>0.3088</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0106632199961912</v>
+        <v>0.01101952623338795</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.32763</v>
+        <v>0.31821</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01034395681613237</v>
+        <v>0.0106632199961912</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.33755</v>
+        <v>0.32763</v>
       </c>
       <c r="B50" t="n">
-        <v>0.009968376879080353</v>
+        <v>0.01034395681613237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.34747</v>
+        <v>0.33755</v>
       </c>
       <c r="B51" t="n">
-        <v>0.009650718286035321</v>
+        <v>0.009968376879080353</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.35739</v>
+        <v>0.34747</v>
       </c>
       <c r="B52" t="n">
-        <v>0.009378198216383502</v>
+        <v>0.009650718286035321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.36731</v>
+        <v>0.35739</v>
       </c>
       <c r="B53" t="n">
-        <v>0.009136151580953464</v>
+        <v>0.009378198216383502</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.37773</v>
+        <v>0.36731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.008841181618964715</v>
+        <v>0.009136151580953464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.38815</v>
+        <v>0.37773</v>
       </c>
       <c r="B55" t="n">
-        <v>0.008568809626550456</v>
+        <v>0.008841181618964715</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.39857</v>
+        <v>0.38815</v>
       </c>
       <c r="B56" t="n">
-        <v>0.008307496234727632</v>
+        <v>0.008568809626550456</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.409</v>
+        <v>0.39857</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008048047538783345</v>
+        <v>0.008307496234727632</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4199100000000001</v>
+        <v>0.409</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007751613300848923</v>
+        <v>0.008048047538783345</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.43082</v>
+        <v>0.4199100000000001</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007452937208347965</v>
+        <v>0.007751613300848923</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.44173</v>
+        <v>0.43082</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00716190937162107</v>
+        <v>0.007452937208347965</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.45264</v>
+        <v>0.44173</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00689031400798927</v>
+        <v>0.00716190937162107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.46402</v>
+        <v>0.45264</v>
       </c>
       <c r="B62" t="n">
-        <v>0.006608898887992329</v>
+        <v>0.00689031400798927</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.46403</v>
+        <v>0.46402</v>
       </c>
       <c r="B63" t="n">
-        <v>0.006603414383934764</v>
+        <v>0.006608898887992329</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4754100000000001</v>
+        <v>0.46403</v>
       </c>
       <c r="B64" t="n">
-        <v>0.006347375211004142</v>
+        <v>0.006603414383934764</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4868</v>
+        <v>0.4754100000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006099358872183447</v>
+        <v>0.006347375211004142</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.49818</v>
+        <v>0.4868</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005844267677886168</v>
+        <v>0.006099358872183447</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.51002</v>
+        <v>0.49818</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005549959257485634</v>
+        <v>0.005844267677886168</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.52186</v>
+        <v>0.51002</v>
       </c>
       <c r="B68" t="n">
-        <v>0.00525744070489998</v>
+        <v>0.005549959257485634</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.53369</v>
+        <v>0.52186</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004977968286576509</v>
+        <v>0.00525744070489998</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5455300000000001</v>
+        <v>0.53369</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00472140764248489</v>
+        <v>0.004977968286576509</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5578</v>
+        <v>0.5455300000000001</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004438986726959236</v>
+        <v>0.00472140764248489</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.57006</v>
+        <v>0.5578</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004175140067878347</v>
+        <v>0.004438986726959236</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5823199999999999</v>
+        <v>0.57006</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0039373841420893</v>
+        <v>0.004175140067878347</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.59459</v>
+        <v>0.5823199999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003729492108140488</v>
+        <v>0.0039373841420893</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.60724</v>
+        <v>0.59459</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003518696697924531</v>
+        <v>0.003729492108140488</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6199</v>
+        <v>0.60724</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00332260914017953</v>
+        <v>0.003518696697924531</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6325499999999999</v>
+        <v>0.6199</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00312806918105836</v>
+        <v>0.00332260914017953</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.63256</v>
+        <v>0.6325499999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003127758245677846</v>
+        <v>0.00312806918105836</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.6452100000000001</v>
+        <v>0.63256</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002927085520425275</v>
+        <v>0.003127758245677846</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.65822</v>
+        <v>0.6452100000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.002723315965098758</v>
+        <v>0.002927085520425275</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.67123</v>
+        <v>0.65822</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002530808427905594</v>
+        <v>0.002723315965098758</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.68424</v>
+        <v>0.67123</v>
       </c>
       <c r="B82" t="n">
-        <v>0.002350116705069741</v>
+        <v>0.002530808427905594</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.69725</v>
+        <v>0.68424</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002182972551376051</v>
+        <v>0.002350116705069741</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.71057</v>
+        <v>0.69725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.002001809336004637</v>
+        <v>0.002182972551376051</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.7238899999999999</v>
+        <v>0.71057</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001838174367331065</v>
+        <v>0.002001809336004637</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.73721</v>
+        <v>0.7238899999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001688897511349707</v>
+        <v>0.001838174367331065</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.75053</v>
+        <v>0.73721</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001547711701937519</v>
+        <v>0.001688897511349707</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7641100000000001</v>
+        <v>0.75053</v>
       </c>
       <c r="B88" t="n">
-        <v>0.001398814943502231</v>
+        <v>0.001547711701937519</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.77769</v>
+        <v>0.7641100000000001</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001251328836554693</v>
+        <v>0.001398814943502231</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.79127</v>
+        <v>0.77769</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001112316269106688</v>
+        <v>0.001251328836554693</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.80485</v>
+        <v>0.79127</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0009882654131504415</v>
+        <v>0.001112316269106688</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8186399999999999</v>
+        <v>0.80485</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0008739105480871</v>
+        <v>0.0009882654131504415</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8324299999999999</v>
+        <v>0.8186399999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0007662631208040448</v>
+        <v>0.0008739105480871</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.84621</v>
+        <v>0.8324299999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0006594058832028834</v>
+        <v>0.0007662631208040448</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.86</v>
+        <v>0.84621</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005503976879978193</v>
+        <v>0.0006594058832028834</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8739399999999999</v>
+        <v>0.86</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004454747448558457</v>
+        <v>0.0005503976879978193</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8878799999999999</v>
+        <v>0.8739399999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003499572948475976</v>
+        <v>0.0004454747448558457</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9018200000000001</v>
+        <v>0.8878799999999999</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002650786435689859</v>
+        <v>0.0003499572948475976</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.91576</v>
+        <v>0.9018200000000001</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001916495247847971</v>
+        <v>0.0002650786435689859</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.92979</v>
+        <v>0.91576</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001285488520081839</v>
+        <v>0.0001916495247847971</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9438200000000001</v>
+        <v>0.92979</v>
       </c>
       <c r="B101" t="n">
-        <v>7.933225875433714e-05</v>
+        <v>0.0001285488520081839</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.95785</v>
+        <v>0.9438200000000001</v>
       </c>
       <c r="B102" t="n">
-        <v>4.210487230656025e-05</v>
+        <v>7.933225875433714e-05</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.97188</v>
+        <v>0.95785</v>
       </c>
       <c r="B103" t="n">
-        <v>1.631485218496645e-05</v>
+        <v>4.210487230656025e-05</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
+        <v>0.97188</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.631485218496645e-05</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
         <v>0.9859399999999999</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B105" t="n">
         <v>3.201768434686963e-06</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.305752639154891e-06</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.0141</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.576537597368585e-05</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.0281</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.888505389612108e-05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.0422</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.21012386658995e-05</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.0562</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0001158926452721979</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.0702</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0001713573835300944</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.0842</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0002396786217089135</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.0982</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0003165167942553619</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.1121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0004034777688110524</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.1261</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0004972724047696026</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.0005942906626238923</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.1538</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.0006978241169228791</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.1676</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.0008123349552700945</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.1814</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0009342324889604545</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.1951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.001059318247911438</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.2087</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.001184765056542532</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.2223</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.001316636009101558</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.2359</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.001457476400837845</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.001610406556873693</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.2628</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.001763257816068323</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.2761</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.001945707128503345</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.002152116228564229</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.3027</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.00237415742406602</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.3158</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.002568599524026771</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.3288</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.002760061815142094</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.3418</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.002949018445707736</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.3548</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.00313850332377764</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.3674</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.003313941496211506</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.3801</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.003504606330631994</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.3928</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.003713870781547431</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.4054</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.003943818173654741</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.4177</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.004162627569288146</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.4299</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.004398503020158927</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.4422</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.00462922388160117</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.4545</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.004834291522258658</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.4663</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.005033781383950942</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.4781</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.005253624563307668</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.005497899200005679</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.5018</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.005771082788880509</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.5132</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.006048344829069108</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.5246</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.006336758954420196</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.006626133521143566</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.5474</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.00690574506075866</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.5583</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.007140443490562086</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.5692</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.007369293629970818</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.5801</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.007615937406180705</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.007900965537398816</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.6014</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0081876615964314</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.6118</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.008496033468999015</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.6223</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.008813153793123932</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.6327</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.009132355051893007</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.6426</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.009401357999736321</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.6525</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.00967623337333212</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.009959542849326068</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.6724</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.01025862719092812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.6818</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.01054301889972058</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.6912</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.01091610882250077</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.7006</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.01136277315284575</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.01186216210253833</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.7189</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.01229343534757978</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.7279</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.01275681993762538</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.7368</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.01324469385852431</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.7457</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.01374614981217962</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.7541</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.01421210415347648</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.7625</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.01468035358393852</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.7709</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.01517611070329397</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.7793</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.01573511632109323</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.7872</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.0162806654717021</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.7951</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.0168755997559634</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.8031</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.01752472472711512</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.01823290852213753</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.8184</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.01889565726004468</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.8258</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.01965009152027334</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.8333</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.02054313546455627</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.8407</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.02161733354325311</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.8477</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.02266890053050102</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.8546</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.02381270621876785</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.8616</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.02505025538602921</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.8685</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.02638829068508666</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.02768365253694617</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.8815</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.02920296531489468</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.8881</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.03101226797751163</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.8946</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.03317026100120374</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.9006</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.03539885174784643</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.9067</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.03801598131154584</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.9128</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.04121816603574695</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.9188</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.04519194761780202</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.9245</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.04966348864347246</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.9301</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.05520510210409924</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.9358</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.06240306831911956</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.9414</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.07171224443704295</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.9467</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.08285822647760578</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.9519</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.0970709824565769</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.9572</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.1159438175620955</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.9624</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.1401741123721835</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.9673</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.167974866912312</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.9722</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.2001319410017756</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.9771</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.2312388421786755</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.9819</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.2419516905203038</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.9865</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.210410316236526</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1148133998701491</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.9955</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.02149681272223748</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
